--- a/biology/Zoologie/Hydrosaurus_weberi/Hydrosaurus_weberi.xlsx
+++ b/biology/Zoologie/Hydrosaurus_weberi/Hydrosaurus_weberi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrosaurus weberi est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrosaurus weberi est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Moluques en Indonésie[1]. Elle se rencontre à Halmahera et à Ternate.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Moluques en Indonésie. Elle se rencontre à Halmahera et à Ternate.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrosaurus weberi est une espèce nommée en l'honneur de Max Carl Wilhelm Weber[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrosaurus weberi est une espèce nommée en l'honneur de Max Carl Wilhelm Weber.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrosaurus weberi vit dans les forêts tropicales près des rivières et points d'eau.
 </t>
@@ -604,7 +622,9 @@
           <t>Taille, Poids</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce mesure environ 1 m de long pour 2,5 kg.
 </t>
@@ -635,7 +655,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrosaurus weberi se nourrit de feuilles, fleurs, fruits et insectes.
 </t>
@@ -666,7 +688,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">2 à 8 œufs incubé en 2 mois.
 </t>
@@ -697,7 +721,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrosaurus weberi est une espèce farouche que se réfugie dans l'eau au moindre danger, et peut y rester près de 15 minutes. Un voile de peau à la base de la queue se déploie comme une crête, ce qui facilite la nage, a un rôle thermorégulateur et est utilisé dans les parades.
 </t>
@@ -728,7 +754,9 @@
           <t>Statut Vulnérable</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme Hydrosaurus pustulatus et sans doute pour des raisons similaires, Hydrosaurus weberi est recherché pour sa viande ou comme animal de compagnie, victime de la déforestation et de la pollution de l'eau, il est vulnérable.
 </t>
